--- a/MISC.xlsx
+++ b/MISC.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirigirs\Desktop\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5520D59-19C5-4F66-9425-A650ECA349EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAA0B6D-09BC-48BF-B5BE-D95F276A2225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -504,7 +503,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
